--- a/DATA/IsoData/TOOLIsoData.xlsx
+++ b/DATA/IsoData/TOOLIsoData.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="50">
   <si>
     <t xml:space="preserve">uid</t>
   </si>
@@ -65,7 +65,10 @@
     <t xml:space="preserve">publicationDate</t>
   </si>
   <si>
-    <t xml:space="preserve">165fccc2-8114-4970-a03a-b04bf7b30f7f</t>
+    <t xml:space="preserve">release</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1a44d128-209a-4cbd-a91b-443872c0adc5</t>
   </si>
   <si>
     <t xml:space="preserve">TOOL.TOS.wet.deposition</t>
@@ -86,10 +89,13 @@
     <t xml:space="preserve">OK</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T154447Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">75e78dff-02da-4fdd-9b4d-1ac59db6ddd3</t>
+    <t xml:space="preserve">20210112T160409Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">RELEASE-2021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">595565a9-e761-4bb6-bf70-2485a7c42c6c</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.TOOL.20190618.1131</t>
@@ -101,7 +107,7 @@
     <t xml:space="preserve">A00000100118</t>
   </si>
   <si>
-    <t xml:space="preserve">acef3ffa-2a6f-414a-94ec-b55fd4b366ee</t>
+    <t xml:space="preserve">b3338319-14f0-4bc7-8eff-7d4148dc94b5</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.TOOL.20190709.1243</t>
@@ -113,10 +119,10 @@
     <t xml:space="preserve">A00000027494</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T154228Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">e427f1af-c2f3-411e-a63a-02601b76832e</t>
+    <t xml:space="preserve">20210112T161657Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">97afea82-ecf9-4ad7-b79e-56b99e0056ce</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.TOOL.20190807.1024</t>
@@ -128,10 +134,10 @@
     <t xml:space="preserve">A000000100224</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T153925Z</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7fc59c33-dee9-4aae-b24e-caa4e8d5283b</t>
+    <t xml:space="preserve">20210112T161323Z</t>
+  </si>
+  <si>
+    <t xml:space="preserve">da2f76f6-2876-4413-b585-59a899fc1e88</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.TOOL.20190820.0940</t>
@@ -143,7 +149,7 @@
     <t xml:space="preserve">A00000027485</t>
   </si>
   <si>
-    <t xml:space="preserve">b4148d10-3ffb-4829-b8b8-80d23a86b97e</t>
+    <t xml:space="preserve">d5044196-7c7f-4b32-80c8-4dfe965e6b8b</t>
   </si>
   <si>
     <t xml:space="preserve">WDP.TOOL.20190904.1618</t>
@@ -155,7 +161,7 @@
     <t xml:space="preserve">A00000100229</t>
   </si>
   <si>
-    <t xml:space="preserve">20200518T153805Z</t>
+    <t xml:space="preserve">20210112T155308Z</t>
   </si>
 </sst>
 </file>
@@ -493,7 +499,7 @@
   <sheetViews>
     <sheetView workbookViewId="0" zoomScale="100" showGridLines="1" tabSelected="1"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetFormatPr defaultRowHeight="15.0" baseColWidth="10"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
@@ -547,23 +553,26 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D2"/>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>43530.8465277778</v>
@@ -584,35 +593,38 @@
         <v>0.221</v>
       </c>
       <c r="M2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N2" s="1" t="n">
         <v>43673.75</v>
       </c>
       <c r="O2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P2"/>
       <c r="Q2" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R2" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C3" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="D3"/>
       <c r="E3" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="F3" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>43617.0166666667</v>
@@ -633,35 +645,38 @@
         <v>0.213</v>
       </c>
       <c r="M3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N3" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P3"/>
       <c r="Q3" t="s">
-        <v>24</v>
+        <v>25</v>
+      </c>
+      <c r="R3" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C4" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="D4"/>
       <c r="E4" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="F4" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="G4" s="1" t="n">
         <v>43634.8131944444</v>
@@ -682,35 +697,38 @@
         <v>0.06</v>
       </c>
       <c r="M4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N4" s="1" t="n">
         <v>43720.75</v>
       </c>
       <c r="O4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P4"/>
       <c r="Q4" t="s">
-        <v>33</v>
+        <v>35</v>
+      </c>
+      <c r="R4" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D5"/>
       <c r="E5" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="F5" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="G5" s="1" t="n">
         <v>43655.8631944444</v>
@@ -731,35 +749,38 @@
         <v>0.238</v>
       </c>
       <c r="M5" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N5" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P5"/>
       <c r="Q5" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R5" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="D6"/>
       <c r="E6" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="F6" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="G6" s="1" t="n">
         <v>43684.7722222222</v>
@@ -780,35 +801,38 @@
         <v>0.089</v>
       </c>
       <c r="M6" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N6" s="1" t="n">
         <v>43733.75</v>
       </c>
       <c r="O6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P6"/>
       <c r="Q6" t="s">
-        <v>38</v>
+        <v>40</v>
+      </c>
+      <c r="R6" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C7" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D7"/>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="F7" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="G7" s="1" t="n">
         <v>43697.7430555556</v>
@@ -829,17 +853,20 @@
         <v>0.281</v>
       </c>
       <c r="M7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="N7" s="1" t="n">
         <v>43837.7916666667</v>
       </c>
       <c r="O7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="P7"/>
       <c r="Q7" t="s">
-        <v>47</v>
+        <v>49</v>
+      </c>
+      <c r="R7" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
